--- a/Code/Results/Cases/Case_5_232/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_232/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.54816684935418</v>
+        <v>10.72688076740771</v>
       </c>
       <c r="C2">
-        <v>6.413112115198498</v>
+        <v>3.963739053596521</v>
       </c>
       <c r="D2">
-        <v>6.447925194187751</v>
+        <v>8.828761819488472</v>
       </c>
       <c r="E2">
-        <v>9.151075534182517</v>
+        <v>13.59623682752056</v>
       </c>
       <c r="F2">
-        <v>23.85389511055262</v>
+        <v>34.83378678937876</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.003073786552849</v>
+        <v>10.19193600088257</v>
       </c>
       <c r="K2">
-        <v>10.922865394305</v>
+        <v>10.14184448770893</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.23762674024419</v>
+        <v>15.39950898954437</v>
       </c>
       <c r="N2">
-        <v>13.10224055840147</v>
+        <v>20.24264389651784</v>
       </c>
       <c r="O2">
-        <v>17.23409818667173</v>
+        <v>26.46393044682836</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.7058053164535</v>
+        <v>10.50258162370887</v>
       </c>
       <c r="C3">
-        <v>6.081969919859225</v>
+        <v>3.790300172835785</v>
       </c>
       <c r="D3">
-        <v>6.195005703411963</v>
+        <v>8.79936673783137</v>
       </c>
       <c r="E3">
-        <v>8.936814827863486</v>
+        <v>13.59191496506115</v>
       </c>
       <c r="F3">
-        <v>23.58582238467802</v>
+        <v>34.88930835545298</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.005685837288971</v>
+        <v>10.21128718076302</v>
       </c>
       <c r="K3">
-        <v>10.2592765418482</v>
+        <v>9.996660893980666</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.7906584169769</v>
+        <v>15.34672583660969</v>
       </c>
       <c r="N3">
-        <v>13.30410725204557</v>
+        <v>20.30316119320696</v>
       </c>
       <c r="O3">
-        <v>17.21455928122691</v>
+        <v>26.53363303243371</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.15804404243806</v>
+        <v>10.3645425397547</v>
       </c>
       <c r="C4">
-        <v>5.86901476062941</v>
+        <v>3.678900705130867</v>
       </c>
       <c r="D4">
-        <v>6.036909903570844</v>
+        <v>8.782682844002625</v>
       </c>
       <c r="E4">
-        <v>8.80735762193779</v>
+        <v>13.59151615728081</v>
       </c>
       <c r="F4">
-        <v>23.43766740616039</v>
+        <v>34.93059362212973</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.009716097935234</v>
+        <v>10.22429469031929</v>
       </c>
       <c r="K4">
-        <v>9.829460698632539</v>
+        <v>9.908205394185952</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.51110249114081</v>
+        <v>15.31668049222618</v>
       </c>
       <c r="N4">
-        <v>13.43088074198371</v>
+        <v>20.34205809608645</v>
       </c>
       <c r="O4">
-        <v>17.21505339283337</v>
+        <v>26.58128892995666</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.92710312329253</v>
+        <v>10.30829268747912</v>
       </c>
       <c r="C5">
-        <v>5.779859210888967</v>
+        <v>3.632307996113129</v>
       </c>
       <c r="D5">
-        <v>5.971877484949007</v>
+        <v>8.776232209314252</v>
       </c>
       <c r="E5">
-        <v>8.755193812123961</v>
+        <v>13.5919223118836</v>
       </c>
       <c r="F5">
-        <v>23.38137787596042</v>
+        <v>34.94922501810515</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.011956247566873</v>
+        <v>10.22987876008328</v>
       </c>
       <c r="K5">
-        <v>9.64870149103696</v>
+        <v>9.872375087786049</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.39606413448232</v>
+        <v>15.30504012954257</v>
       </c>
       <c r="N5">
-        <v>13.48327358783405</v>
+        <v>20.35834747052239</v>
       </c>
       <c r="O5">
-        <v>17.21829304147714</v>
+        <v>26.60192932555659</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.88828784823193</v>
+        <v>10.29895501941319</v>
       </c>
       <c r="C6">
-        <v>5.764913187611662</v>
+        <v>3.624500254563509</v>
       </c>
       <c r="D6">
-        <v>5.961045285231513</v>
+        <v>8.775182255342715</v>
       </c>
       <c r="E6">
-        <v>8.746569594784983</v>
+        <v>13.59202414393063</v>
       </c>
       <c r="F6">
-        <v>23.37227608249138</v>
+        <v>34.95242784061876</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.012363966676178</v>
+        <v>10.23082311650933</v>
       </c>
       <c r="K6">
-        <v>9.61834878087519</v>
+        <v>9.866439796619439</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.3768999466675</v>
+        <v>15.30314394833804</v>
       </c>
       <c r="N6">
-        <v>13.49201816191207</v>
+        <v>20.36107883485682</v>
       </c>
       <c r="O6">
-        <v>17.21901145859565</v>
+        <v>26.60543030325816</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.15496082100946</v>
+        <v>10.36378381545826</v>
       </c>
       <c r="C7">
-        <v>5.867821921468211</v>
+        <v>3.678277130484822</v>
       </c>
       <c r="D7">
-        <v>6.036035175314011</v>
+        <v>8.782594432335131</v>
       </c>
       <c r="E7">
-        <v>8.806651645928847</v>
+        <v>13.59151933026146</v>
       </c>
       <c r="F7">
-        <v>23.43689180048697</v>
+        <v>34.93083757674001</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.009743905262729</v>
+        <v>10.22436885113645</v>
       </c>
       <c r="K7">
-        <v>9.8270455804767</v>
+        <v>9.90772124263645</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.50955532915889</v>
+        <v>15.31652105182472</v>
       </c>
       <c r="N7">
-        <v>13.43158434092853</v>
+        <v>20.34227600284247</v>
       </c>
       <c r="O7">
-        <v>17.2150849186155</v>
+        <v>26.58156235483314</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.26403501583613</v>
+        <v>10.64965721480571</v>
       </c>
       <c r="C8">
-        <v>6.300958763036202</v>
+        <v>3.904976560875141</v>
       </c>
       <c r="D8">
-        <v>6.361355483106634</v>
+        <v>8.818346226665621</v>
       </c>
       <c r="E8">
-        <v>9.076800311205464</v>
+        <v>13.594279736216</v>
       </c>
       <c r="F8">
-        <v>23.75802428773675</v>
+        <v>34.85143634854319</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.003463356543294</v>
+        <v>10.19837481503335</v>
       </c>
       <c r="K8">
-        <v>10.69871083060683</v>
+        <v>10.09166828091738</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.08466960554963</v>
+        <v>15.38082432969454</v>
       </c>
       <c r="N8">
-        <v>13.17127041113608</v>
+        <v>20.26315009451855</v>
       </c>
       <c r="O8">
-        <v>17.22470735172437</v>
+        <v>26.48695475422834</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.19850439070077</v>
+        <v>11.2042340760616</v>
       </c>
       <c r="C9">
-        <v>7.072339579834108</v>
+        <v>4.309226284384465</v>
       </c>
       <c r="D9">
-        <v>6.973316939200094</v>
+        <v>8.899050801488965</v>
       </c>
       <c r="E9">
-        <v>9.620506097753717</v>
+        <v>13.61750108193892</v>
       </c>
       <c r="F9">
-        <v>24.51994009930729</v>
+        <v>34.75288567505749</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.010957944170372</v>
+        <v>10.15631957874163</v>
       </c>
       <c r="K9">
-        <v>12.23025995991822</v>
+        <v>10.45595706339193</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.16539462526021</v>
+        <v>15.52525845548937</v>
       </c>
       <c r="N9">
-        <v>12.68222556981723</v>
+        <v>20.12172366107763</v>
       </c>
       <c r="O9">
-        <v>17.34719195596035</v>
+        <v>26.34003751757035</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.47598791301742</v>
+        <v>11.60354828633762</v>
       </c>
       <c r="C10">
-        <v>7.590044780930083</v>
+        <v>4.580156980639996</v>
       </c>
       <c r="D10">
-        <v>7.402778862132428</v>
+        <v>8.964470795275796</v>
       </c>
       <c r="E10">
-        <v>10.02499434597196</v>
+        <v>13.64529332349813</v>
       </c>
       <c r="F10">
-        <v>25.16198970832251</v>
+        <v>34.71539096037259</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.029314309682062</v>
+        <v>10.13084010677876</v>
       </c>
       <c r="K10">
-        <v>13.24736637484445</v>
+        <v>10.72327486676931</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.92333698544456</v>
+        <v>15.64195538442655</v>
       </c>
       <c r="N10">
-        <v>12.33451757575552</v>
+        <v>20.02610902314024</v>
       </c>
       <c r="O10">
-        <v>17.50635644749491</v>
+        <v>26.25571155542312</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.02655502895599</v>
+        <v>11.78256805715219</v>
       </c>
       <c r="C11">
-        <v>7.814751508237933</v>
+        <v>4.697513649901412</v>
       </c>
       <c r="D11">
-        <v>7.593065313397891</v>
+        <v>8.995485210240734</v>
       </c>
       <c r="E11">
-        <v>10.20942785917874</v>
+        <v>13.66023501527012</v>
       </c>
       <c r="F11">
-        <v>25.47213182868834</v>
+        <v>34.70591804519928</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.040623391708054</v>
+        <v>10.12042131319568</v>
       </c>
       <c r="K11">
-        <v>13.6867956965293</v>
+        <v>10.84429882644518</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.25910825218926</v>
+        <v>15.69720354020909</v>
       </c>
       <c r="N11">
-        <v>12.17850902351355</v>
+        <v>19.98439380994128</v>
       </c>
       <c r="O11">
-        <v>17.59501914958571</v>
+        <v>26.22249148375044</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.23069696065815</v>
+        <v>11.84991279533192</v>
       </c>
       <c r="C12">
-        <v>7.898282639932471</v>
+        <v>4.741091074227715</v>
       </c>
       <c r="D12">
-        <v>7.664344200010771</v>
+        <v>9.00740300765702</v>
       </c>
       <c r="E12">
-        <v>10.27927941270154</v>
+        <v>13.66622043748256</v>
       </c>
       <c r="F12">
-        <v>25.59217852065921</v>
+        <v>34.70342071162597</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.045345200127619</v>
+        <v>10.1166441691064</v>
       </c>
       <c r="K12">
-        <v>13.84987418832855</v>
+        <v>10.89000250858793</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.38487979696197</v>
+        <v>15.71842307974651</v>
       </c>
       <c r="N12">
-        <v>12.11971413303447</v>
+        <v>19.96885202963487</v>
       </c>
       <c r="O12">
-        <v>17.63102816588144</v>
+        <v>26.21065204209316</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.1869238218261</v>
+        <v>11.83542977930702</v>
       </c>
       <c r="C13">
-        <v>7.880362181433839</v>
+        <v>4.731744501398123</v>
       </c>
       <c r="D13">
-        <v>7.649028319673586</v>
+        <v>9.004828704136619</v>
       </c>
       <c r="E13">
-        <v>10.26423592280354</v>
+        <v>13.6649168662529</v>
       </c>
       <c r="F13">
-        <v>25.56620854315572</v>
+        <v>34.70391010226213</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.04430851355985</v>
+        <v>10.11745016756517</v>
       </c>
       <c r="K13">
-        <v>13.81489976989658</v>
+        <v>10.88016563671548</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.35785504733384</v>
+        <v>15.71384001287359</v>
       </c>
       <c r="N13">
-        <v>12.13236460019516</v>
+        <v>19.97218791306402</v>
       </c>
       <c r="O13">
-        <v>17.6231632060254</v>
+        <v>26.21316893728537</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.04343671724061</v>
+        <v>11.78811786462007</v>
       </c>
       <c r="C14">
-        <v>7.821654962638279</v>
+        <v>4.701116167576486</v>
       </c>
       <c r="D14">
-        <v>7.598945318950843</v>
+        <v>8.996462262657367</v>
       </c>
       <c r="E14">
-        <v>10.21517465217809</v>
+        <v>13.66072089896273</v>
       </c>
       <c r="F14">
-        <v>25.48195597316478</v>
+        <v>34.70569075162078</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.041002973443237</v>
+        <v>10.12010719549661</v>
       </c>
       <c r="K14">
-        <v>13.70027874293447</v>
+        <v>10.84806164597036</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.2694835743232</v>
+        <v>15.69894338084731</v>
       </c>
       <c r="N14">
-        <v>12.17366645138643</v>
+        <v>19.98311007697809</v>
       </c>
       <c r="O14">
-        <v>17.59793230251409</v>
+        <v>26.22150260356738</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.95498225679654</v>
+        <v>11.75907790561429</v>
       </c>
       <c r="C15">
-        <v>7.785491748190752</v>
+        <v>4.682242617759496</v>
       </c>
       <c r="D15">
-        <v>7.568165364983654</v>
+        <v>8.991359931379378</v>
       </c>
       <c r="E15">
-        <v>10.18512314975983</v>
+        <v>13.65819327468692</v>
       </c>
       <c r="F15">
-        <v>25.43068782814525</v>
+        <v>34.70692335237781</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.039035859174879</v>
+        <v>10.12175660095194</v>
       </c>
       <c r="K15">
-        <v>13.62963787994022</v>
+        <v>10.82837946268013</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.21517193192636</v>
+        <v>15.68985722341056</v>
       </c>
       <c r="N15">
-        <v>12.19900087550537</v>
+        <v>19.98983337485787</v>
       </c>
       <c r="O15">
-        <v>17.58279748561965</v>
+        <v>26.22670365171996</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.4393961804503</v>
+        <v>11.5917900887576</v>
       </c>
       <c r="C16">
-        <v>7.575141594935615</v>
+        <v>4.572367480890213</v>
       </c>
       <c r="D16">
-        <v>7.390236697734494</v>
+        <v>8.962468574457791</v>
       </c>
       <c r="E16">
-        <v>10.01294534125842</v>
+        <v>13.64436283645857</v>
       </c>
       <c r="F16">
-        <v>25.14208526493126</v>
+        <v>34.71616259613894</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.028635950785212</v>
+        <v>10.13154455676866</v>
       </c>
       <c r="K16">
-        <v>13.21818228255367</v>
+        <v>10.71535036558702</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.90120479679915</v>
+        <v>15.63838722367275</v>
       </c>
       <c r="N16">
-        <v>12.34475421844609</v>
+        <v>20.02887093748389</v>
       </c>
       <c r="O16">
-        <v>17.50089760117588</v>
+        <v>26.25798609873939</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.11530676932456</v>
+        <v>11.48844104139108</v>
       </c>
       <c r="C17">
-        <v>7.443325543997608</v>
+        <v>4.503441585040825</v>
       </c>
       <c r="D17">
-        <v>7.279745632453863</v>
+        <v>8.94506101512656</v>
       </c>
       <c r="E17">
-        <v>9.907391943639858</v>
+        <v>13.63646488031504</v>
       </c>
       <c r="F17">
-        <v>24.96966958973979</v>
+        <v>34.72377263248607</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.023023533907661</v>
+        <v>10.13784910530725</v>
       </c>
       <c r="K17">
-        <v>12.95982388878216</v>
+        <v>10.64583171712846</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.70622363843663</v>
+        <v>15.60735695874919</v>
       </c>
       <c r="N17">
-        <v>12.43470356821195</v>
+        <v>20.05327439122065</v>
       </c>
       <c r="O17">
-        <v>17.45488834623002</v>
+        <v>26.27849424431249</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.92601898978249</v>
+        <v>11.42875362001471</v>
       </c>
       <c r="C18">
-        <v>7.366491987836262</v>
+        <v>4.463243489770253</v>
       </c>
       <c r="D18">
-        <v>7.215718467371883</v>
+        <v>8.935167170673949</v>
       </c>
       <c r="E18">
-        <v>9.846723647788572</v>
+        <v>13.63213877595459</v>
       </c>
       <c r="F18">
-        <v>24.87220164357674</v>
+        <v>34.72886360613176</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.020073067616478</v>
+        <v>10.14158564233416</v>
       </c>
       <c r="K18">
-        <v>12.80903231737999</v>
+        <v>10.60579424414629</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.59323041203016</v>
+        <v>15.58971346744304</v>
       </c>
       <c r="N18">
-        <v>12.48664574008132</v>
+        <v>20.06747825672864</v>
       </c>
       <c r="O18">
-        <v>17.42994973680855</v>
+        <v>26.29077375187989</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.86143325170661</v>
+        <v>11.4085047561176</v>
       </c>
       <c r="C19">
-        <v>7.340303199619844</v>
+        <v>4.449538530390368</v>
       </c>
       <c r="D19">
-        <v>7.193959887992459</v>
+        <v>8.931837853289322</v>
       </c>
       <c r="E19">
-        <v>9.826191469186805</v>
+        <v>13.63071132557151</v>
       </c>
       <c r="F19">
-        <v>24.83949262067362</v>
+        <v>34.73070994296002</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.01912135738752</v>
+        <v>10.14286972733365</v>
       </c>
       <c r="K19">
-        <v>12.75760008732294</v>
+        <v>10.59223058435545</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12.55483038072034</v>
+        <v>15.58377515089674</v>
       </c>
       <c r="N19">
-        <v>12.50426865608511</v>
+        <v>20.07231626980429</v>
       </c>
       <c r="O19">
-        <v>17.42176483064851</v>
+        <v>26.2950144328109</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.15010436801373</v>
+        <v>11.49946846048273</v>
       </c>
       <c r="C20">
-        <v>7.457462856131465</v>
+        <v>4.510836298617558</v>
       </c>
       <c r="D20">
-        <v>7.291557196568654</v>
+        <v>8.946901863385076</v>
       </c>
       <c r="E20">
-        <v>9.918624195745441</v>
+        <v>13.63728323752577</v>
       </c>
       <c r="F20">
-        <v>24.98784744358063</v>
+        <v>34.72288864995502</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.023592150038897</v>
+        <v>10.13716655900162</v>
       </c>
       <c r="K20">
-        <v>12.98755317162774</v>
+        <v>10.65323780581657</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.72706782385018</v>
+        <v>15.61063912979167</v>
       </c>
       <c r="N20">
-        <v>12.42510722499711</v>
+        <v>20.05065925969359</v>
       </c>
       <c r="O20">
-        <v>17.45962760102983</v>
+        <v>26.27626104081024</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.08569990152065</v>
+        <v>11.80202714924935</v>
       </c>
       <c r="C21">
-        <v>7.838941079635687</v>
+        <v>4.710135985817121</v>
       </c>
       <c r="D21">
-        <v>7.613677381249816</v>
+        <v>8.998915043406647</v>
       </c>
       <c r="E21">
-        <v>10.22958523301457</v>
+        <v>13.66194449987885</v>
       </c>
       <c r="F21">
-        <v>25.50663234881443</v>
+        <v>34.70513816156965</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.041961856840864</v>
+        <v>10.11932219877159</v>
       </c>
       <c r="K21">
-        <v>13.73403573858003</v>
+        <v>10.85749509910928</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.29547837912783</v>
+        <v>15.70331089094401</v>
       </c>
       <c r="N21">
-        <v>12.16152768062819</v>
+        <v>19.97989506480246</v>
       </c>
       <c r="O21">
-        <v>17.60527640816109</v>
+        <v>26.21903470460352</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.67185864791199</v>
+        <v>11.99713775677318</v>
       </c>
       <c r="C22">
-        <v>8.079163766468112</v>
+        <v>4.83535416869249</v>
       </c>
       <c r="D22">
-        <v>7.819647381371102</v>
+        <v>9.033915399823355</v>
       </c>
       <c r="E22">
-        <v>10.43285777183638</v>
+        <v>13.67996828382964</v>
       </c>
       <c r="F22">
-        <v>25.86085770508829</v>
+        <v>34.6998889749016</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.056534687139218</v>
+        <v>10.10864028853749</v>
       </c>
       <c r="K22">
-        <v>14.20254401489871</v>
+        <v>10.99023930195395</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.68375421698322</v>
+        <v>15.7656095857916</v>
       </c>
       <c r="N22">
-        <v>11.99089299398896</v>
+        <v>19.93513159891778</v>
       </c>
       <c r="O22">
-        <v>17.71469836840318</v>
+        <v>26.18594931370729</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.36131350576136</v>
+        <v>11.89326541309083</v>
       </c>
       <c r="C23">
-        <v>7.951785800903514</v>
+        <v>4.768988169714985</v>
       </c>
       <c r="D23">
-        <v>7.710147860264847</v>
+        <v>9.015145338403226</v>
       </c>
       <c r="E23">
-        <v>10.32437921460016</v>
+        <v>13.67017537276742</v>
       </c>
       <c r="F23">
-        <v>25.6704125590741</v>
+        <v>34.70210974489494</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.048517373211724</v>
+        <v>10.11425181806751</v>
       </c>
       <c r="K23">
-        <v>13.95425590883212</v>
+        <v>10.91947332780525</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.46569975059321</v>
+        <v>15.73220537699979</v>
       </c>
       <c r="N23">
-        <v>12.08182494601979</v>
+        <v>19.95888719990934</v>
       </c>
       <c r="O23">
-        <v>17.65496447282117</v>
+        <v>26.2032124237133</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.1343816110086</v>
+        <v>11.49448380219065</v>
       </c>
       <c r="C24">
-        <v>7.451074649557697</v>
+        <v>4.50749492805372</v>
       </c>
       <c r="D24">
-        <v>7.286218755710272</v>
+        <v>8.946069260285556</v>
       </c>
       <c r="E24">
-        <v>9.913546041538252</v>
+        <v>13.6369125897403</v>
       </c>
       <c r="F24">
-        <v>24.97962407774696</v>
+        <v>34.72328606854558</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.023334219471545</v>
+        <v>10.13747478939428</v>
       </c>
       <c r="K24">
-        <v>12.97502379717693</v>
+        <v>10.64988972879168</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.71764695206512</v>
+        <v>15.60915464809829</v>
       </c>
       <c r="N24">
-        <v>12.42944501600242</v>
+        <v>20.05184101857308</v>
       </c>
       <c r="O24">
-        <v>17.45748027948199</v>
+        <v>26.27726914866719</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.70063357267742</v>
+        <v>11.05532522304556</v>
       </c>
       <c r="C25">
-        <v>6.872193149944178</v>
+        <v>4.204352550518758</v>
       </c>
       <c r="D25">
-        <v>6.811030138492717</v>
+        <v>8.876116895507719</v>
       </c>
       <c r="E25">
-        <v>9.472295659523237</v>
+        <v>13.60932442522094</v>
       </c>
       <c r="F25">
-        <v>24.29946127342563</v>
+        <v>34.77341839042822</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.00673008647652</v>
+        <v>10.16674370238556</v>
       </c>
       <c r="K25">
-        <v>11.8349698512838</v>
+        <v>10.35728600780915</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.87889893796813</v>
+        <v>15.48428168940537</v>
       </c>
       <c r="N25">
-        <v>12.81237811556829</v>
+        <v>20.15852114709161</v>
       </c>
       <c r="O25">
-        <v>17.30233428441258</v>
+        <v>26.37564078331069</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_232/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_232/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.72688076740771</v>
+        <v>12.5481668493542</v>
       </c>
       <c r="C2">
-        <v>3.963739053596521</v>
+        <v>6.413112115198574</v>
       </c>
       <c r="D2">
-        <v>8.828761819488472</v>
+        <v>6.447925194187783</v>
       </c>
       <c r="E2">
-        <v>13.59623682752056</v>
+        <v>9.151075534182477</v>
       </c>
       <c r="F2">
-        <v>34.83378678937876</v>
+        <v>23.85389511055243</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.19193600088257</v>
+        <v>6.003073786552818</v>
       </c>
       <c r="K2">
-        <v>10.14184448770893</v>
+        <v>10.92286539430502</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.39950898954437</v>
+        <v>11.23762674024417</v>
       </c>
       <c r="N2">
-        <v>20.24264389651784</v>
+        <v>13.10224055840136</v>
       </c>
       <c r="O2">
-        <v>26.46393044682836</v>
+        <v>17.2340981866716</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.50258162370887</v>
+        <v>11.70580531645344</v>
       </c>
       <c r="C3">
-        <v>3.790300172835785</v>
+        <v>6.081969919859304</v>
       </c>
       <c r="D3">
-        <v>8.79936673783137</v>
+        <v>6.195005703411919</v>
       </c>
       <c r="E3">
-        <v>13.59191496506115</v>
+        <v>8.936814827863522</v>
       </c>
       <c r="F3">
-        <v>34.88930835545298</v>
+        <v>23.58582238467825</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.21128718076302</v>
+        <v>6.005685837289028</v>
       </c>
       <c r="K3">
-        <v>9.996660893980666</v>
+        <v>10.25927654184819</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.34672583660969</v>
+        <v>10.79065841697696</v>
       </c>
       <c r="N3">
-        <v>20.30316119320696</v>
+        <v>13.30410725204564</v>
       </c>
       <c r="O3">
-        <v>26.53363303243371</v>
+        <v>17.21455928122712</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.3645425397547</v>
+        <v>11.15804404243806</v>
       </c>
       <c r="C4">
-        <v>3.678900705130867</v>
+        <v>5.869014760629465</v>
       </c>
       <c r="D4">
-        <v>8.782682844002625</v>
+        <v>6.036909903570812</v>
       </c>
       <c r="E4">
-        <v>13.59151615728081</v>
+        <v>8.807357621937834</v>
       </c>
       <c r="F4">
-        <v>34.93059362212973</v>
+        <v>23.43766740616032</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.22429469031929</v>
+        <v>6.009716097935232</v>
       </c>
       <c r="K4">
-        <v>9.908205394185952</v>
+        <v>9.829460698632547</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.31668049222618</v>
+        <v>10.51110249114081</v>
       </c>
       <c r="N4">
-        <v>20.34205809608645</v>
+        <v>13.43088074198367</v>
       </c>
       <c r="O4">
-        <v>26.58128892995666</v>
+        <v>17.21505339283331</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.30829268747912</v>
+        <v>10.92710312329261</v>
       </c>
       <c r="C5">
-        <v>3.632307996113129</v>
+        <v>5.77985921088887</v>
       </c>
       <c r="D5">
-        <v>8.776232209314252</v>
+        <v>5.971877484949027</v>
       </c>
       <c r="E5">
-        <v>13.5919223118836</v>
+        <v>8.755193812124002</v>
       </c>
       <c r="F5">
-        <v>34.94922501810515</v>
+        <v>23.38137787596036</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.22987876008328</v>
+        <v>6.011956247566842</v>
       </c>
       <c r="K5">
-        <v>9.872375087786049</v>
+        <v>9.648701491036983</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.30504012954257</v>
+        <v>10.3960641344823</v>
       </c>
       <c r="N5">
-        <v>20.35834747052239</v>
+        <v>13.48327358783401</v>
       </c>
       <c r="O5">
-        <v>26.60192932555659</v>
+        <v>17.21829304147701</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.29895501941319</v>
+        <v>10.88828784823195</v>
       </c>
       <c r="C6">
-        <v>3.624500254563509</v>
+        <v>5.76491318761165</v>
       </c>
       <c r="D6">
-        <v>8.775182255342715</v>
+        <v>5.961045285231518</v>
       </c>
       <c r="E6">
-        <v>13.59202414393063</v>
+        <v>8.746569594785027</v>
       </c>
       <c r="F6">
-        <v>34.95242784061876</v>
+        <v>23.37227608249124</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.23082311650933</v>
+        <v>6.012363966676264</v>
       </c>
       <c r="K6">
-        <v>9.866439796619439</v>
+        <v>9.618348780875218</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.30314394833804</v>
+        <v>10.37689994666749</v>
       </c>
       <c r="N6">
-        <v>20.36107883485682</v>
+        <v>13.49201816191207</v>
       </c>
       <c r="O6">
-        <v>26.60543030325816</v>
+        <v>17.21901145859554</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.36378381545826</v>
+        <v>11.15496082100951</v>
       </c>
       <c r="C7">
-        <v>3.678277130484822</v>
+        <v>5.867821921468386</v>
       </c>
       <c r="D7">
-        <v>8.782594432335131</v>
+        <v>6.036035175314055</v>
       </c>
       <c r="E7">
-        <v>13.59151933026146</v>
+        <v>8.806651645928856</v>
       </c>
       <c r="F7">
-        <v>34.93083757674001</v>
+        <v>23.43689180048699</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.22436885113645</v>
+        <v>6.009743905262734</v>
       </c>
       <c r="K7">
-        <v>9.90772124263645</v>
+        <v>9.827045580476772</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.31652105182472</v>
+        <v>10.50955532915886</v>
       </c>
       <c r="N7">
-        <v>20.34227600284247</v>
+        <v>13.4315843409286</v>
       </c>
       <c r="O7">
-        <v>26.58156235483314</v>
+        <v>17.21508491861551</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.64965721480571</v>
+        <v>12.26403501583605</v>
       </c>
       <c r="C8">
-        <v>3.904976560875141</v>
+        <v>6.300958763036279</v>
       </c>
       <c r="D8">
-        <v>8.818346226665621</v>
+        <v>6.361355483106651</v>
       </c>
       <c r="E8">
-        <v>13.594279736216</v>
+        <v>9.076800311205478</v>
       </c>
       <c r="F8">
-        <v>34.85143634854319</v>
+        <v>23.7580242877368</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.19837481503335</v>
+        <v>6.003463356543299</v>
       </c>
       <c r="K8">
-        <v>10.09166828091738</v>
+        <v>10.69871083060679</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.38082432969454</v>
+        <v>11.08466960554964</v>
       </c>
       <c r="N8">
-        <v>20.26315009451855</v>
+        <v>13.17127041113608</v>
       </c>
       <c r="O8">
-        <v>26.48695475422834</v>
+        <v>17.22470735172439</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.2042340760616</v>
+        <v>14.19850439070072</v>
       </c>
       <c r="C9">
-        <v>4.309226284384465</v>
+        <v>7.072339579834266</v>
       </c>
       <c r="D9">
-        <v>8.899050801488965</v>
+        <v>6.973316939200165</v>
       </c>
       <c r="E9">
-        <v>13.61750108193892</v>
+        <v>9.620506097753795</v>
       </c>
       <c r="F9">
-        <v>34.75288567505749</v>
+        <v>24.51994009930724</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.15631957874163</v>
+        <v>6.010957944170343</v>
       </c>
       <c r="K9">
-        <v>10.45595706339193</v>
+        <v>12.23025995991824</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.52525845548937</v>
+        <v>12.16539462526023</v>
       </c>
       <c r="N9">
-        <v>20.12172366107763</v>
+        <v>12.68222556981713</v>
       </c>
       <c r="O9">
-        <v>26.34003751757035</v>
+        <v>17.34719195596027</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.60354828633762</v>
+        <v>15.47598791301736</v>
       </c>
       <c r="C10">
-        <v>4.580156980639996</v>
+        <v>7.590044780930326</v>
       </c>
       <c r="D10">
-        <v>8.964470795275796</v>
+        <v>7.402778862132414</v>
       </c>
       <c r="E10">
-        <v>13.64529332349813</v>
+        <v>10.02499434597195</v>
       </c>
       <c r="F10">
-        <v>34.71539096037259</v>
+        <v>25.16198970832242</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.13084010677876</v>
+        <v>6.02931430968203</v>
       </c>
       <c r="K10">
-        <v>10.72327486676931</v>
+        <v>13.24736637484444</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.64195538442655</v>
+        <v>12.92333698544455</v>
       </c>
       <c r="N10">
-        <v>20.02610902314024</v>
+        <v>12.33451757575549</v>
       </c>
       <c r="O10">
-        <v>26.25571155542312</v>
+        <v>17.50635644749486</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.78256805715219</v>
+        <v>16.02655502895605</v>
       </c>
       <c r="C11">
-        <v>4.697513649901412</v>
+        <v>7.814751508238003</v>
       </c>
       <c r="D11">
-        <v>8.995485210240734</v>
+        <v>7.593065313397861</v>
       </c>
       <c r="E11">
-        <v>13.66023501527012</v>
+        <v>10.20942785917873</v>
       </c>
       <c r="F11">
-        <v>34.70591804519928</v>
+        <v>25.47213182868819</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.12042131319568</v>
+        <v>6.040623391708007</v>
       </c>
       <c r="K11">
-        <v>10.84429882644518</v>
+        <v>13.68679569652933</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.69720354020909</v>
+        <v>13.25910825218925</v>
       </c>
       <c r="N11">
-        <v>19.98439380994128</v>
+        <v>12.17850902351348</v>
       </c>
       <c r="O11">
-        <v>26.22249148375044</v>
+        <v>17.59501914958559</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.84991279533192</v>
+        <v>16.23069696065809</v>
       </c>
       <c r="C12">
-        <v>4.741091074227715</v>
+        <v>7.898282639932386</v>
       </c>
       <c r="D12">
-        <v>9.00740300765702</v>
+        <v>7.664344200010778</v>
       </c>
       <c r="E12">
-        <v>13.66622043748256</v>
+        <v>10.27927941270154</v>
       </c>
       <c r="F12">
-        <v>34.70342071162597</v>
+        <v>25.59217852065916</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.1166441691064</v>
+        <v>6.045345200127617</v>
       </c>
       <c r="K12">
-        <v>10.89000250858793</v>
+        <v>13.84987418832853</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.71842307974651</v>
+        <v>13.38487979696198</v>
       </c>
       <c r="N12">
-        <v>19.96885202963487</v>
+        <v>12.1197141330344</v>
       </c>
       <c r="O12">
-        <v>26.21065204209316</v>
+        <v>17.63102816588142</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.83542977930702</v>
+        <v>16.18692382182622</v>
       </c>
       <c r="C13">
-        <v>4.731744501398123</v>
+        <v>7.880362181433684</v>
       </c>
       <c r="D13">
-        <v>9.004828704136619</v>
+        <v>7.649028319673615</v>
       </c>
       <c r="E13">
-        <v>13.6649168662529</v>
+        <v>10.26423592280356</v>
       </c>
       <c r="F13">
-        <v>34.70391010226213</v>
+        <v>25.56620854315567</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.11745016756517</v>
+        <v>6.044308513559801</v>
       </c>
       <c r="K13">
-        <v>10.88016563671548</v>
+        <v>13.81489976989664</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.71384001287359</v>
+        <v>13.35785504733384</v>
       </c>
       <c r="N13">
-        <v>19.97218791306402</v>
+        <v>12.13236460019512</v>
       </c>
       <c r="O13">
-        <v>26.21316893728537</v>
+        <v>17.62316320602529</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.78811786462007</v>
+        <v>16.04343671724061</v>
       </c>
       <c r="C14">
-        <v>4.701116167576486</v>
+        <v>7.82165496263814</v>
       </c>
       <c r="D14">
-        <v>8.996462262657367</v>
+        <v>7.598945318950884</v>
       </c>
       <c r="E14">
-        <v>13.66072089896273</v>
+        <v>10.21517465217815</v>
       </c>
       <c r="F14">
-        <v>34.70569075162078</v>
+        <v>25.48195597316487</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.12010719549661</v>
+        <v>6.041002973443279</v>
       </c>
       <c r="K14">
-        <v>10.84806164597036</v>
+        <v>13.70027874293443</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.69894338084731</v>
+        <v>13.26948357432322</v>
       </c>
       <c r="N14">
-        <v>19.98311007697809</v>
+        <v>12.17366645138653</v>
       </c>
       <c r="O14">
-        <v>26.22150260356738</v>
+        <v>17.59793230251416</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.75907790561429</v>
+        <v>15.95498225679652</v>
       </c>
       <c r="C15">
-        <v>4.682242617759496</v>
+        <v>7.785491748190851</v>
       </c>
       <c r="D15">
-        <v>8.991359931379378</v>
+        <v>7.568165364983645</v>
       </c>
       <c r="E15">
-        <v>13.65819327468692</v>
+        <v>10.18512314975983</v>
       </c>
       <c r="F15">
-        <v>34.70692335237781</v>
+        <v>25.43068782814524</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.12175660095194</v>
+        <v>6.039035859174879</v>
       </c>
       <c r="K15">
-        <v>10.82837946268013</v>
+        <v>13.62963787994023</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.68985722341056</v>
+        <v>13.21517193192632</v>
       </c>
       <c r="N15">
-        <v>19.98983337485787</v>
+        <v>12.1990008755054</v>
       </c>
       <c r="O15">
-        <v>26.22670365171996</v>
+        <v>17.58279748561965</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.5917900887576</v>
+        <v>15.43939618045027</v>
       </c>
       <c r="C16">
-        <v>4.572367480890213</v>
+        <v>7.575141594935644</v>
       </c>
       <c r="D16">
-        <v>8.962468574457791</v>
+        <v>7.390236697734502</v>
       </c>
       <c r="E16">
-        <v>13.64436283645857</v>
+        <v>10.01294534125841</v>
       </c>
       <c r="F16">
-        <v>34.71616259613894</v>
+        <v>25.14208526493131</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.13154455676866</v>
+        <v>6.028635950785188</v>
       </c>
       <c r="K16">
-        <v>10.71535036558702</v>
+        <v>13.21818228255365</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.63838722367275</v>
+        <v>12.90120479679917</v>
       </c>
       <c r="N16">
-        <v>20.02887093748389</v>
+        <v>12.34475421844606</v>
       </c>
       <c r="O16">
-        <v>26.25798609873939</v>
+        <v>17.5008976011759</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.48844104139108</v>
+        <v>15.11530676932454</v>
       </c>
       <c r="C17">
-        <v>4.503441585040825</v>
+        <v>7.443325543997623</v>
       </c>
       <c r="D17">
-        <v>8.94506101512656</v>
+        <v>7.279745632453863</v>
       </c>
       <c r="E17">
-        <v>13.63646488031504</v>
+        <v>9.907391943639858</v>
       </c>
       <c r="F17">
-        <v>34.72377263248607</v>
+        <v>24.96966958973977</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.13784910530725</v>
+        <v>6.023023533907662</v>
       </c>
       <c r="K17">
-        <v>10.64583171712846</v>
+        <v>12.95982388878213</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.60735695874919</v>
+        <v>12.70622363843663</v>
       </c>
       <c r="N17">
-        <v>20.05327439122065</v>
+        <v>12.43470356821192</v>
       </c>
       <c r="O17">
-        <v>26.27849424431249</v>
+        <v>17.45488834622996</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.42875362001471</v>
+        <v>14.92601898978249</v>
       </c>
       <c r="C18">
-        <v>4.463243489770253</v>
+        <v>7.366491987836247</v>
       </c>
       <c r="D18">
-        <v>8.935167170673949</v>
+        <v>7.215718467371814</v>
       </c>
       <c r="E18">
-        <v>13.63213877595459</v>
+        <v>9.84672364778851</v>
       </c>
       <c r="F18">
-        <v>34.72886360613176</v>
+        <v>24.87220164357669</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.14158564233416</v>
+        <v>6.020073067616478</v>
       </c>
       <c r="K18">
-        <v>10.60579424414629</v>
+        <v>12.80903231737997</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.58971346744304</v>
+        <v>12.59323041203014</v>
       </c>
       <c r="N18">
-        <v>20.06747825672864</v>
+        <v>12.48664574008132</v>
       </c>
       <c r="O18">
-        <v>26.29077375187989</v>
+        <v>17.42994973680858</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.4085047561176</v>
+        <v>14.86143325170664</v>
       </c>
       <c r="C19">
-        <v>4.449538530390368</v>
+        <v>7.340303199619728</v>
       </c>
       <c r="D19">
-        <v>8.931837853289322</v>
+        <v>7.193959887992494</v>
       </c>
       <c r="E19">
-        <v>13.63071132557151</v>
+        <v>9.826191469186863</v>
       </c>
       <c r="F19">
-        <v>34.73070994296002</v>
+        <v>24.8394926206735</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.14286972733365</v>
+        <v>6.019121357387502</v>
       </c>
       <c r="K19">
-        <v>10.59223058435545</v>
+        <v>12.75760008732292</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.58377515089674</v>
+        <v>12.55483038072035</v>
       </c>
       <c r="N19">
-        <v>20.07231626980429</v>
+        <v>12.50426865608501</v>
       </c>
       <c r="O19">
-        <v>26.2950144328109</v>
+        <v>17.42176483064836</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.49946846048273</v>
+        <v>15.15010436801373</v>
       </c>
       <c r="C20">
-        <v>4.510836298617558</v>
+        <v>7.457462856131595</v>
       </c>
       <c r="D20">
-        <v>8.946901863385076</v>
+        <v>7.291557196568649</v>
       </c>
       <c r="E20">
-        <v>13.63728323752577</v>
+        <v>9.918624195745446</v>
       </c>
       <c r="F20">
-        <v>34.72288864995502</v>
+        <v>24.98784744358056</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.13716655900162</v>
+        <v>6.023592150038877</v>
       </c>
       <c r="K20">
-        <v>10.65323780581657</v>
+        <v>12.98755317162776</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.61063912979167</v>
+        <v>12.72706782385017</v>
       </c>
       <c r="N20">
-        <v>20.05065925969359</v>
+        <v>12.42510722499705</v>
       </c>
       <c r="O20">
-        <v>26.27626104081024</v>
+        <v>17.45962760102978</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.80202714924935</v>
+        <v>16.08569990152067</v>
       </c>
       <c r="C21">
-        <v>4.710135985817121</v>
+        <v>7.838941079635631</v>
       </c>
       <c r="D21">
-        <v>8.998915043406647</v>
+        <v>7.613677381249877</v>
       </c>
       <c r="E21">
-        <v>13.66194449987885</v>
+        <v>10.2295852330146</v>
       </c>
       <c r="F21">
-        <v>34.70513816156965</v>
+        <v>25.50663234881437</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.11932219877159</v>
+        <v>6.041961856840826</v>
       </c>
       <c r="K21">
-        <v>10.85749509910928</v>
+        <v>13.73403573858007</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.70331089094401</v>
+        <v>13.29547837912782</v>
       </c>
       <c r="N21">
-        <v>19.97989506480246</v>
+        <v>12.16152768062812</v>
       </c>
       <c r="O21">
-        <v>26.21903470460352</v>
+        <v>17.60527640816099</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.99713775677318</v>
+        <v>16.67185864791199</v>
       </c>
       <c r="C22">
-        <v>4.83535416869249</v>
+        <v>8.079163766467918</v>
       </c>
       <c r="D22">
-        <v>9.033915399823355</v>
+        <v>7.819647381371038</v>
       </c>
       <c r="E22">
-        <v>13.67996828382964</v>
+        <v>10.43285777183626</v>
       </c>
       <c r="F22">
-        <v>34.6998889749016</v>
+        <v>25.86085770508814</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.10864028853749</v>
+        <v>6.056534687139165</v>
       </c>
       <c r="K22">
-        <v>10.99023930195395</v>
+        <v>14.20254401489867</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.7656095857916</v>
+        <v>13.68375421698326</v>
       </c>
       <c r="N22">
-        <v>19.93513159891778</v>
+        <v>11.9908929939889</v>
       </c>
       <c r="O22">
-        <v>26.18594931370729</v>
+        <v>17.71469836840315</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.89326541309083</v>
+        <v>16.36131350576138</v>
       </c>
       <c r="C23">
-        <v>4.768988169714985</v>
+        <v>7.951785800903667</v>
       </c>
       <c r="D23">
-        <v>9.015145338403226</v>
+        <v>7.710147860264832</v>
       </c>
       <c r="E23">
-        <v>13.67017537276742</v>
+        <v>10.3243792146002</v>
       </c>
       <c r="F23">
-        <v>34.70210974489494</v>
+        <v>25.67041255907403</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.11425181806751</v>
+        <v>6.048517373211769</v>
       </c>
       <c r="K23">
-        <v>10.91947332780525</v>
+        <v>13.95425590883214</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.73220537699979</v>
+        <v>13.46569975059321</v>
       </c>
       <c r="N23">
-        <v>19.95888719990934</v>
+        <v>12.08182494601976</v>
       </c>
       <c r="O23">
-        <v>26.2032124237133</v>
+        <v>17.6549644728211</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.49448380219065</v>
+        <v>15.13438161100849</v>
       </c>
       <c r="C24">
-        <v>4.50749492805372</v>
+        <v>7.45107464955781</v>
       </c>
       <c r="D24">
-        <v>8.946069260285556</v>
+        <v>7.286218755710299</v>
       </c>
       <c r="E24">
-        <v>13.6369125897403</v>
+        <v>9.91354604153822</v>
       </c>
       <c r="F24">
-        <v>34.72328606854558</v>
+        <v>24.97962407774701</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.13747478939428</v>
+        <v>6.023334219471471</v>
       </c>
       <c r="K24">
-        <v>10.64988972879168</v>
+        <v>12.97502379717689</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.60915464809829</v>
+        <v>12.71764695206512</v>
       </c>
       <c r="N24">
-        <v>20.05184101857308</v>
+        <v>12.42944501600239</v>
       </c>
       <c r="O24">
-        <v>26.27726914866719</v>
+        <v>17.457480279482</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.05532522304556</v>
+        <v>13.70063357267742</v>
       </c>
       <c r="C25">
-        <v>4.204352550518758</v>
+        <v>6.872193149944268</v>
       </c>
       <c r="D25">
-        <v>8.876116895507719</v>
+        <v>6.811030138492664</v>
       </c>
       <c r="E25">
-        <v>13.60932442522094</v>
+        <v>9.472295659523198</v>
       </c>
       <c r="F25">
-        <v>34.77341839042822</v>
+        <v>24.29946127342563</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.16674370238556</v>
+        <v>6.006730086476435</v>
       </c>
       <c r="K25">
-        <v>10.35728600780915</v>
+        <v>11.83496985128383</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.48428168940537</v>
+        <v>11.8788989379681</v>
       </c>
       <c r="N25">
-        <v>20.15852114709161</v>
+        <v>12.81237811556839</v>
       </c>
       <c r="O25">
-        <v>26.37564078331069</v>
+        <v>17.30233428441261</v>
       </c>
     </row>
   </sheetData>
